--- a/2023/poland_iii-liga-group-i_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-i_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Jagiellonia II</t>
+          <t>Zambrow</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -581,14 +581,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Bron Radom</t>
+          <t>Legia II</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.63</v>
+        <v>3.32</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1.17</v>
+        <v>3.47</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.81</v>
+        <v>3.52</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>7.01</v>
+        <v>3.7</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.63</v>
+        <v>1.78</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>8.640000000000001</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/jagiellonia-bron-radom/K2SDnu6F/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/olimpia-zambrow-legia/jkkoUWkl/</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Zambrow</t>
+          <t>Jagiellonia II</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,14 +673,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Legia II</t>
+          <t>Bron Radom</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.32</v>
+        <v>1.63</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.47</v>
+        <v>1.17</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.52</v>
+        <v>3.81</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.7</v>
+        <v>7.01</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.78</v>
+        <v>3.63</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>1.83</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/olimpia-zambrow-legia/jkkoUWkl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/jagiellonia-bron-radom/K2SDnu6F/</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Concordia Elblag</t>
+          <t>Pilica Bialobrzegi</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1409,14 +1409,14 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Jagiellonia II</t>
+          <t>Warta Sieradz</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.77</v>
+        <v>2.29</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.46</v>
+        <v>3.39</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.05</v>
+        <v>2.49</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.29</v>
+        <v>2.11</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>12/08/2023 16:05</t>
+          <t>12/08/2023 16:57</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/concordia-elblag-jagiellonia/IH8fQlkD/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/pilica-bialobrzegi-warta-sieradz/SnjomCdQ/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Pilica Bialobrzegi</t>
+          <t>Concordia Elblag</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,63 +1501,63 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Warta Sieradz</t>
+          <t>Jagiellonia II</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>11/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:05</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>11/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>12/08/2023 16:05</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>11/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
         <v>2.29</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>11/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:57</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>11/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12/08/2023 16:57</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>11/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v>2.11</v>
-      </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>12/08/2023 16:57</t>
+          <t>12/08/2023 16:05</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/pilica-bialobrzegi-warta-sieradz/SnjomCdQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/concordia-elblag-jagiellonia/IH8fQlkD/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>T. Mazowiecki</t>
+          <t>Pelikan</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Legia II</t>
+          <t>Zambrow</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.72</v>
+        <v>1.66</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.38</v>
+        <v>1.6</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13/08/2023 11:33</t>
+          <t>12/08/2023 11:16</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.27</v>
+        <v>3.59</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.51</v>
+        <v>3.89</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>13/08/2023 11:33</t>
+          <t>13/08/2023 10:04</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>2.16</v>
+        <v>3.84</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>1.91</v>
+        <v>4.34</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>13/08/2023 11:33</t>
+          <t>12/08/2023 11:16</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/tomaszow-mazowiecki-legia/W06rTj5f/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/pelikan-olimpia-zambrow/Ai5nSAK0/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pelikan</t>
+          <t>T. Mazowiecki</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Zambrow</t>
+          <t>Legia II</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.66</v>
+        <v>2.72</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.6</v>
+        <v>3.38</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 11:16</t>
+          <t>13/08/2023 11:33</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.59</v>
+        <v>3.27</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.89</v>
+        <v>3.51</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 10:04</t>
+          <t>13/08/2023 11:33</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.84</v>
+        <v>2.16</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.34</v>
+        <v>1.91</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 11:16</t>
+          <t>13/08/2023 11:33</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/pelikan-olimpia-zambrow/Ai5nSAK0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/tomaszow-mazowiecki-legia/W06rTj5f/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>LKS Lomza</t>
+          <t>Legionowo</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>T. Mazowiecki</t>
+          <t>Swit Mazowiecki</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>3.03</v>
+        <v>1.95</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>18/08/2023 04:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.03</v>
+        <v>2.11</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.51</v>
+        <v>3.31</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>18/08/2023 04:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.53</v>
+        <v>3.46</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 14:05</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.01</v>
+        <v>3</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>18/08/2023 04:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.01</v>
+        <v>2.91</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/lks-lomza-tomaszow-mazowiecki/OfVLtAZg/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/legionowo-swit-mazowiecki/hzNxwSYI/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Legionowo</t>
+          <t>LKS Lomza</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Swit Mazowiecki</t>
+          <t>T. Mazowiecki</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.95</v>
+        <v>3.03</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>18/08/2023 04:12</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.11</v>
+        <v>3.03</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.31</v>
+        <v>3.51</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>18/08/2023 04:12</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.46</v>
+        <v>3.53</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 14:05</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>2.01</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>18/08/2023 04:12</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.91</v>
+        <v>2.01</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/legionowo-swit-mazowiecki/hzNxwSYI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/lks-lomza-tomaszow-mazowiecki/OfVLtAZg/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Warta Sieradz</t>
+          <t>GKS Belchatow</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Skierniewice</t>
+          <t>Concordia Elblag</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.07</v>
+        <v>1.6</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.3</v>
+        <v>4.19</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.68</v>
+        <v>3.9</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 16:12</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.96</v>
+        <v>5.27</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.86</v>
+        <v>4.49</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/warta-sieradz-unia-skierniewice/d8TTvl46/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/gks-belchatow-concordia-elblag/KtFO0VQP/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>GKS Belchatow</t>
+          <t>Warta Sieradz</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Concordia Elblag</t>
+          <t>Skierniewice</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.46</v>
+        <v>1.97</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.6</v>
+        <v>2.07</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:05</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.19</v>
+        <v>3.3</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.9</v>
+        <v>3.68</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:12</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>5.27</v>
+        <v>2.96</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>4.49</v>
+        <v>2.86</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:05</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/gks-belchatow-concordia-elblag/KtFO0VQP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/warta-sieradz-unia-skierniewice/d8TTvl46/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Pelikan</t>
+          <t>Zambrow</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Bron Radom</t>
+          <t>Mlawa</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.49</v>
+        <v>2.47</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.69</v>
+        <v>2.97</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>27/08/2023 11:06</t>
+          <t>27/08/2023 11:50</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.01</v>
+        <v>3.39</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.8</v>
+        <v>3.92</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>27/08/2023 11:06</t>
+          <t>27/08/2023 11:50</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.57</v>
+        <v>2.23</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.95</v>
+        <v>1.94</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>27/08/2023 11:06</t>
+          <t>27/08/2023 11:50</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/pelikan-bron-radom/W2kBMomn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/olimpia-zambrow-mks-mlawa/GjF12r2U/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Zambrow</t>
+          <t>Pelikan</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Mlawa</t>
+          <t>Bron Radom</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.47</v>
+        <v>1.49</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.97</v>
+        <v>1.69</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>27/08/2023 11:50</t>
+          <t>27/08/2023 11:06</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.39</v>
+        <v>4.01</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.92</v>
+        <v>3.8</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>27/08/2023 11:50</t>
+          <t>27/08/2023 11:06</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.23</v>
+        <v>4.57</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>1.94</v>
+        <v>3.95</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>27/08/2023 11:50</t>
+          <t>27/08/2023 11:06</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/olimpia-zambrow-mks-mlawa/GjF12r2U/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/pelikan-bron-radom/W2kBMomn/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Warta Sieradz</t>
+          <t>GKS Belchatow</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>T. Mazowiecki</t>
+          <t>Skierniewice</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.71</v>
+        <v>1.79</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3.14</v>
+        <v>1.79</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:59</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.27</v>
+        <v>3.65</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.34</v>
+        <v>3.68</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:59</t>
+          <t>09/09/2023 15:03</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.12</v>
+        <v>3.45</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.05</v>
+        <v>3.45</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>09/09/2023 16:59</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/warta-sieradz-tomaszow-mazowiecki/QZLnMxg3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/gks-belchatow-unia-skierniewice/fFD3IfhS/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>GKS Belchatow</t>
+          <t>Warta Sieradz</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Skierniewice</t>
+          <t>T. Mazowiecki</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.79</v>
+        <v>2.71</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.79</v>
+        <v>3.14</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>09/09/2023 16:59</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.65</v>
+        <v>3.27</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.68</v>
+        <v>3.34</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>09/09/2023 15:03</t>
+          <t>09/09/2023 16:59</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.45</v>
+        <v>2.12</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.45</v>
+        <v>2.05</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>09/09/2023 16:59</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/gks-belchatow-unia-skierniewice/fFD3IfhS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/warta-sieradz-tomaszow-mazowiecki/QZLnMxg3/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Warta Sieradz</t>
+          <t>T. Mazowiecki</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Wikielec</t>
+          <t>Concordia Elblag</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.4</v>
+        <v>1.46</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.61</v>
+        <v>1.49</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.18</v>
+        <v>3.97</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.47</v>
+        <v>4.17</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.4</v>
+        <v>4.65</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.31</v>
+        <v>5.16</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/warta-sieradz-gks-wikielec/zcDLOVE1/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/tomaszow-mazowiecki-concordia-elblag/EJtQZeN2/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>T. Mazowiecki</t>
+          <t>Swit Mazowiecki</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Concordia Elblag</t>
+          <t>Pelikan</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.49</v>
+        <v>1.72</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:45</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.97</v>
+        <v>3.5</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>4.17</v>
+        <v>3.9</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:45</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.65</v>
+        <v>3.65</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.16</v>
+        <v>3.74</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:45</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/tomaszow-mazowiecki-concordia-elblag/EJtQZeN2/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/swit-mazowiecki-pelikan/zZUYXZiF/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Swit Mazowiecki</t>
+          <t>Pilica Bialobrzegi</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Pelikan</t>
+          <t>Legia II</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.69</v>
+        <v>3.93</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.72</v>
+        <v>6.37</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/09/2023 15:45</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.5</v>
+        <v>3.78</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.9</v>
+        <v>4.7</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/09/2023 15:45</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.65</v>
+        <v>1.61</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.74</v>
+        <v>1.36</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/09/2023 15:45</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/swit-mazowiecki-pelikan/zZUYXZiF/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/pilica-bialobrzegi-legia/lxZxXg7L/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Pilica Bialobrzegi</t>
+          <t>Mlawa</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Legia II</t>
+          <t>Bron Radom</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>3.93</v>
+        <v>1.76</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>6.37</v>
+        <v>1.95</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:46</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.78</v>
+        <v>3.76</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.7</v>
+        <v>3.76</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:46</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>1.61</v>
+        <v>3.16</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>1.36</v>
+        <v>3.05</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:46</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/pilica-bialobrzegi-legia/lxZxXg7L/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/mks-mlawa-bron-radom/hAuUYFx9/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mlawa</t>
+          <t>LKS Lomza</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Bron Radom</t>
+          <t>Jagiellonia II</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.76</v>
+        <v>2.62</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.95</v>
+        <v>2.73</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>16/09/2023 15:46</t>
+          <t>16/09/2023 15:58</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.76</v>
+        <v>3.3</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.76</v>
+        <v>3.62</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>16/09/2023 15:46</t>
+          <t>16/09/2023 15:58</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.16</v>
+        <v>2.29</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.05</v>
+        <v>2.16</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>16/09/2023 15:46</t>
+          <t>16/09/2023 15:58</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/mks-mlawa-bron-radom/hAuUYFx9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/lks-lomza-jagiellonia/2qFDQipk/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>LKS Lomza</t>
+          <t>Warta Sieradz</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Jagiellonia II</t>
+          <t>Wikielec</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.73</v>
+        <v>2.61</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>16/09/2023 15:58</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.3</v>
+        <v>3.18</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.62</v>
+        <v>3.47</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>16/09/2023 15:58</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.29</v>
+        <v>2.4</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.16</v>
+        <v>2.31</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>16/09/2023 15:58</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/lks-lomza-jagiellonia/2qFDQipk/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/warta-sieradz-gks-wikielec/zcDLOVE1/</t>
         </is>
       </c>
     </row>
@@ -6342,6 +6342,98 @@
       <c r="V64" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/victoria-sulejowek-legionowo/tzEHPBae/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>iii-liga-group-i</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45189.70833333334</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Jagiellonia II</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Grodzisk M.</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>08/09/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>20/09/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>08/09/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>20/09/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>08/09/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>20/09/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/jagiellonia-gks-pogon-grodzisk-mazowiecki/GOEaJzwM/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-i_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-i_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Legionowo</t>
+          <t>LKS Lomza</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Swit Mazowiecki</t>
+          <t>T. Mazowiecki</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.95</v>
+        <v>3.03</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>18/08/2023 04:12</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.11</v>
+        <v>3.03</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.31</v>
+        <v>3.51</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>18/08/2023 04:12</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.46</v>
+        <v>3.53</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 14:05</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>2.01</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>18/08/2023 04:12</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.91</v>
+        <v>2.01</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/legionowo-swit-mazowiecki/hzNxwSYI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/lks-lomza-tomaszow-mazowiecki/OfVLtAZg/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>LKS Lomza</t>
+          <t>Legionowo</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>T. Mazowiecki</t>
+          <t>Swit Mazowiecki</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>3.03</v>
+        <v>1.95</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>18/08/2023 04:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.03</v>
+        <v>2.11</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.51</v>
+        <v>3.31</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>18/08/2023 04:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.53</v>
+        <v>3.46</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 14:05</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.01</v>
+        <v>3</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>18/08/2023 04:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.01</v>
+        <v>2.91</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/lks-lomza-tomaszow-mazowiecki/OfVLtAZg/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/legionowo-swit-mazowiecki/hzNxwSYI/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sulejowek</t>
+          <t>GKS Belchatow</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Grodzisk M.</t>
+          <t>Concordia Elblag</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.65</v>
+        <v>1.46</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>19/08/2023 09:27</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.88</v>
+        <v>1.6</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:03</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.32</v>
+        <v>4.19</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>19/08/2023 09:27</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:03</t>
+          <t>19/08/2023 16:12</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.31</v>
+        <v>5.27</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>19/08/2023 09:27</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.16</v>
+        <v>4.49</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:03</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/victoria-sulejowek-gks-pogon-grodzisk-mazowiecki/IHUPuUl0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/gks-belchatow-concordia-elblag/KtFO0VQP/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>GKS Belchatow</t>
+          <t>Warta Sieradz</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Concordia Elblag</t>
+          <t>Skierniewice</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.46</v>
+        <v>1.97</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.6</v>
+        <v>2.07</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:05</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.19</v>
+        <v>3.3</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.9</v>
+        <v>3.68</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:12</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>5.27</v>
+        <v>2.96</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>4.49</v>
+        <v>2.86</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>19/08/2023 16:05</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/gks-belchatow-concordia-elblag/KtFO0VQP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/warta-sieradz-unia-skierniewice/d8TTvl46/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Warta Sieradz</t>
+          <t>Sulejowek</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Skierniewice</t>
+          <t>Grodzisk M.</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.97</v>
+        <v>2.65</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:27</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.07</v>
+        <v>2.88</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 16:03</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:27</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 16:03</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.96</v>
+        <v>2.31</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:27</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.86</v>
+        <v>2.16</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 16:03</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/warta-sieradz-unia-skierniewice/d8TTvl46/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/victoria-sulejowek-gks-pogon-grodzisk-mazowiecki/IHUPuUl0/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skierniewice</t>
+          <t>Concordia Elblag</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Wikielec</t>
+          <t>Zambrow</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.66</v>
+        <v>1.97</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:54</t>
+          <t>22/08/2023 22:10</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.79</v>
+        <v>3.27</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.8</v>
+        <v>3.61</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:54</t>
+          <t>23/08/2023 15:00</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.9</v>
+        <v>2.98</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.24</v>
+        <v>3.89</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:54</t>
+          <t>23/08/2023 13:49</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/unia-skierniewice-gks-wikielec/rwu2EleP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/concordia-elblag-olimpia-zambrow/K4g7h7Y5/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Swit Mazowiecki</t>
+          <t>Skierniewice</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Jagiellonia II</t>
+          <t>Wikielec</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:11</t>
+          <t>23/08/2023 16:54</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.58</v>
+        <v>3.79</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.02</v>
+        <v>3.8</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:11</t>
+          <t>23/08/2023 16:54</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.42</v>
+        <v>3.9</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>4.46</v>
+        <v>3.24</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:11</t>
+          <t>23/08/2023 16:54</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/swit-mazowiecki-jagiellonia/SUdFjo3I/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/unia-skierniewice-gks-wikielec/rwu2EleP/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Concordia Elblag</t>
+          <t>Swit Mazowiecki</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Zambrow</t>
+          <t>Jagiellonia II</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1.97</v>
+        <v>1.74</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>22/08/2023 22:10</t>
+          <t>23/08/2023 16:11</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.27</v>
+        <v>3.58</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.61</v>
+        <v>4.02</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>23/08/2023 15:00</t>
+          <t>23/08/2023 16:11</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.89</v>
+        <v>4.46</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/08/2023 13:49</t>
+          <t>23/08/2023 16:11</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/concordia-elblag-olimpia-zambrow/K4g7h7Y5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/swit-mazowiecki-jagiellonia/SUdFjo3I/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Zambrow</t>
+          <t>Jagiellonia II</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Mlawa</t>
+          <t>Pilica Bialobrzegi</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>2.47</v>
+        <v>1.65</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.97</v>
+        <v>1.79</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>27/08/2023 11:50</t>
+          <t>27/08/2023 11:36</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.39</v>
+        <v>3.75</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.92</v>
+        <v>4.04</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>27/08/2023 11:50</t>
+          <t>27/08/2023 11:37</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.23</v>
+        <v>3.62</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>1.94</v>
+        <v>3.34</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>27/08/2023 11:50</t>
+          <t>27/08/2023 11:15</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/olimpia-zambrow-mks-mlawa/GjF12r2U/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/jagiellonia-pilica-bialobrzegi/KOLh44XH/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Jagiellonia II</t>
+          <t>Zambrow</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pilica Bialobrzegi</t>
+          <t>Mlawa</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.65</v>
+        <v>2.47</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.79</v>
+        <v>2.97</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/08/2023 11:36</t>
+          <t>27/08/2023 11:50</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.75</v>
+        <v>3.39</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.04</v>
+        <v>3.92</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/08/2023 11:37</t>
+          <t>27/08/2023 11:50</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.62</v>
+        <v>2.23</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.34</v>
+        <v>1.94</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/08/2023 11:15</t>
+          <t>27/08/2023 11:50</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/jagiellonia-pilica-bialobrzegi/KOLh44XH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/olimpia-zambrow-mks-mlawa/GjF12r2U/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skierniewice</t>
+          <t>LKS Lomza</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Jagiellonia II</t>
+          <t>Wikielec</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.18</v>
+        <v>2.37</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.97</v>
+        <v>3.06</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 15:40</t>
+          <t>02/09/2023 15:18</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.31</v>
+        <v>3.28</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.57</v>
+        <v>3.51</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 15:40</t>
+          <t>02/09/2023 15:13</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>01/09/2023 04:12</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.14</v>
+        <v>2.03</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 15:40</t>
+          <t>02/09/2023 15:18</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/unia-skierniewice-jagiellonia/IJLh0eWq/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/lks-lomza-gks-wikielec/QqP0bZ0d/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>LKS Lomza</t>
+          <t>Skierniewice</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Jagiellonia II</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Wikielec</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.37</v>
+        <v>2.18</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.06</v>
+        <v>1.97</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 15:18</t>
+          <t>02/09/2023 15:40</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.28</v>
+        <v>3.31</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 15:13</t>
+          <t>02/09/2023 15:40</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 04:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.03</v>
+        <v>3.14</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 15:18</t>
+          <t>02/09/2023 15:40</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/lks-lomza-gks-wikielec/QqP0bZ0d/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/unia-skierniewice-jagiellonia/IJLh0eWq/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sulejowek</t>
+          <t>Concordia Elblag</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Warta Sieradz</t>
+          <t>Pelikan</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.55</v>
+        <v>2.71</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.64</v>
+        <v>2.87</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:30</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>4.02</v>
+        <v>3.14</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.94</v>
+        <v>3.19</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:30</t>
+          <t>02/09/2023 16:02</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.34</v>
+        <v>2.18</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.15</v>
+        <v>2.25</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>02/09/2023 16:30</t>
+          <t>02/09/2023 16:53</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/victoria-sulejowek-warta-sieradz/Sl3qNIwc/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/concordia-elblag-pelikan/j55CKPHb/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Swit Mazowiecki</t>
+          <t>Sulejowek</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Zambrow</t>
+          <t>Warta Sieradz</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>02/09/2023 16:57</t>
+          <t>02/09/2023 16:30</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.52</v>
+        <v>4.02</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>5.32</v>
+        <v>3.94</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>02/09/2023 16:57</t>
+          <t>02/09/2023 16:30</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>5.85</v>
+        <v>4.34</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>7.45</v>
+        <v>4.15</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>02/09/2023 16:57</t>
+          <t>02/09/2023 16:30</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/swit-mazowiecki-olimpia-zambrow/bV8KI3nB/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/victoria-sulejowek-warta-sieradz/Sl3qNIwc/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Concordia Elblag</t>
+          <t>Swit Mazowiecki</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Pelikan</t>
+          <t>Zambrow</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.71</v>
+        <v>1.32</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.87</v>
+        <v>1.28</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:57</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.14</v>
+        <v>4.52</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.19</v>
+        <v>5.32</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>02/09/2023 16:02</t>
+          <t>02/09/2023 16:57</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.18</v>
+        <v>5.85</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.25</v>
+        <v>7.45</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>02/09/2023 16:53</t>
+          <t>02/09/2023 16:57</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/concordia-elblag-pelikan/j55CKPHb/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/swit-mazowiecki-olimpia-zambrow/bV8KI3nB/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>GKS Belchatow</t>
+          <t>Warta Sieradz</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Skierniewice</t>
+          <t>T. Mazowiecki</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.79</v>
+        <v>2.71</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.79</v>
+        <v>3.14</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>09/09/2023 16:59</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.65</v>
+        <v>3.27</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.68</v>
+        <v>3.34</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>09/09/2023 15:03</t>
+          <t>09/09/2023 16:59</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.45</v>
+        <v>2.12</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>08/09/2023 05:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.45</v>
+        <v>2.05</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>09/09/2023 12:43</t>
+          <t>09/09/2023 16:59</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/gks-belchatow-unia-skierniewice/fFD3IfhS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/warta-sieradz-tomaszow-mazowiecki/QZLnMxg3/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Warta Sieradz</t>
+          <t>GKS Belchatow</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>T. Mazowiecki</t>
+          <t>Skierniewice</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.71</v>
+        <v>1.79</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.14</v>
+        <v>1.79</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>09/09/2023 16:59</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.27</v>
+        <v>3.65</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.34</v>
+        <v>3.68</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>09/09/2023 16:59</t>
+          <t>09/09/2023 15:03</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.12</v>
+        <v>3.45</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>08/09/2023 05:13</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.05</v>
+        <v>3.45</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>09/09/2023 16:59</t>
+          <t>09/09/2023 12:43</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/warta-sieradz-tomaszow-mazowiecki/QZLnMxg3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/gks-belchatow-unia-skierniewice/fFD3IfhS/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>T. Mazowiecki</t>
+          <t>Warta Sieradz</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Concordia Elblag</t>
+          <t>Wikielec</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>1.46</v>
+        <v>2.4</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.49</v>
+        <v>2.61</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.97</v>
+        <v>3.18</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.17</v>
+        <v>3.47</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>4.65</v>
+        <v>2.4</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.16</v>
+        <v>2.31</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/tomaszow-mazowiecki-concordia-elblag/EJtQZeN2/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/warta-sieradz-gks-wikielec/zcDLOVE1/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Swit Mazowiecki</t>
+          <t>T. Mazowiecki</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Pelikan</t>
+          <t>Concordia Elblag</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.72</v>
+        <v>1.49</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:45</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.5</v>
+        <v>3.97</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.9</v>
+        <v>4.17</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:45</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.65</v>
+        <v>4.65</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.74</v>
+        <v>5.16</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 15:45</t>
+          <t>16/09/2023 15:36</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/swit-mazowiecki-pelikan/zZUYXZiF/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/tomaszow-mazowiecki-concordia-elblag/EJtQZeN2/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Pilica Bialobrzegi</t>
+          <t>Swit Mazowiecki</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Legia II</t>
+          <t>Pelikan</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>3.93</v>
+        <v>1.69</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>6.37</v>
+        <v>1.72</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:45</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.78</v>
+        <v>3.5</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:45</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>1.61</v>
+        <v>3.65</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.36</v>
+        <v>3.74</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/09/2023 15:56</t>
+          <t>16/09/2023 15:45</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/pilica-bialobrzegi-legia/lxZxXg7L/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/swit-mazowiecki-pelikan/zZUYXZiF/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mlawa</t>
+          <t>Pilica Bialobrzegi</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Bron Radom</t>
+          <t>Legia II</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.76</v>
+        <v>3.93</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.95</v>
+        <v>6.37</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>16/09/2023 15:46</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.76</v>
+        <v>3.78</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.76</v>
+        <v>4.7</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>16/09/2023 15:46</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.16</v>
+        <v>1.61</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.05</v>
+        <v>1.36</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>16/09/2023 15:46</t>
+          <t>16/09/2023 15:56</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/mks-mlawa-bron-radom/hAuUYFx9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/pilica-bialobrzegi-legia/lxZxXg7L/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>LKS Lomza</t>
+          <t>Mlawa</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Jagiellonia II</t>
+          <t>Bron Radom</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.62</v>
+        <v>1.76</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.73</v>
+        <v>1.95</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>16/09/2023 15:58</t>
+          <t>16/09/2023 15:46</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.3</v>
+        <v>3.76</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.62</v>
+        <v>3.76</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>16/09/2023 15:58</t>
+          <t>16/09/2023 15:46</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.29</v>
+        <v>3.16</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>16/09/2023 12:43</t>
+          <t>15/09/2023 03:13</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.16</v>
+        <v>3.05</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>16/09/2023 15:58</t>
+          <t>16/09/2023 15:46</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/lks-lomza-jagiellonia/2qFDQipk/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/mks-mlawa-bron-radom/hAuUYFx9/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Warta Sieradz</t>
+          <t>LKS Lomza</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Wikielec</t>
+          <t>Jagiellonia II</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.61</v>
+        <v>2.73</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:58</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.18</v>
+        <v>3.3</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.47</v>
+        <v>3.62</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:58</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>15/09/2023 03:13</t>
+          <t>16/09/2023 12:43</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.31</v>
+        <v>2.16</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:58</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/warta-sieradz-gks-wikielec/zcDLOVE1/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/lks-lomza-jagiellonia/2qFDQipk/</t>
         </is>
       </c>
     </row>
@@ -6434,6 +6434,190 @@
       <c r="V65" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/jagiellonia-gks-pogon-grodzisk-mazowiecki/GOEaJzwM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>iii-liga-group-i</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45191.66666666666</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Legia II</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Skierniewice</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>21/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>22/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>21/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>22/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>21/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>22/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/legia-unia-skierniewice/tzzmuiar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>iii-liga-group-i</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45191.75</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Bron Radom</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Swit Mazowiecki</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>21/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>22/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>21/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>22/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>21/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>22/09/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/bron-radom-swit-mazowiecki/l0wewVTf/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-i_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-i_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Pelikan</t>
+          <t>T. Mazowiecki</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Zambrow</t>
+          <t>Legia II</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.66</v>
+        <v>2.72</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.6</v>
+        <v>3.38</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>12/08/2023 11:16</t>
+          <t>13/08/2023 11:33</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.59</v>
+        <v>3.27</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.89</v>
+        <v>3.51</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>13/08/2023 10:04</t>
+          <t>13/08/2023 11:33</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.84</v>
+        <v>2.16</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.34</v>
+        <v>1.91</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>12/08/2023 11:16</t>
+          <t>13/08/2023 11:33</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/pelikan-olimpia-zambrow/Ai5nSAK0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/tomaszow-mazowiecki-legia/W06rTj5f/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>T. Mazowiecki</t>
+          <t>Pelikan</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Legia II</t>
+          <t>Zambrow</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.72</v>
+        <v>1.66</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.38</v>
+        <v>1.6</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13/08/2023 11:33</t>
+          <t>12/08/2023 11:16</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.27</v>
+        <v>3.59</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.51</v>
+        <v>3.89</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>13/08/2023 11:33</t>
+          <t>13/08/2023 10:04</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.16</v>
+        <v>3.84</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>1.91</v>
+        <v>4.34</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>13/08/2023 11:33</t>
+          <t>12/08/2023 11:16</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/tomaszow-mazowiecki-legia/W06rTj5f/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/pelikan-olimpia-zambrow/Ai5nSAK0/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>GKS Belchatow</t>
+          <t>Sulejowek</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,63 +2421,63 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Concordia Elblag</t>
+          <t>Grodzisk M.</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.46</v>
+        <v>2.65</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:27</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.6</v>
+        <v>2.88</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:05</t>
+          <t>19/08/2023 16:03</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>4.19</v>
+        <v>3.32</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:27</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:12</t>
+          <t>19/08/2023 16:03</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>5.27</v>
+        <v>2.31</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:27</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>4.49</v>
+        <v>2.16</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:05</t>
+          <t>19/08/2023 16:03</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/gks-belchatow-concordia-elblag/KtFO0VQP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/victoria-sulejowek-gks-pogon-grodzisk-mazowiecki/IHUPuUl0/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sulejowek</t>
+          <t>GKS Belchatow</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,63 +2605,63 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Grodzisk M.</t>
+          <t>Concordia Elblag</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.65</v>
+        <v>1.46</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:27</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.88</v>
+        <v>1.6</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:03</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.32</v>
+        <v>4.19</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:27</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:03</t>
+          <t>19/08/2023 16:12</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.31</v>
+        <v>5.27</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:27</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.16</v>
+        <v>4.49</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:03</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/victoria-sulejowek-gks-pogon-grodzisk-mazowiecki/IHUPuUl0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/gks-belchatow-concordia-elblag/KtFO0VQP/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Concordia Elblag</t>
+          <t>Skierniewice</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Zambrow</t>
+          <t>Wikielec</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.97</v>
+        <v>1.66</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>22/08/2023 22:10</t>
+          <t>23/08/2023 16:54</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.27</v>
+        <v>3.79</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.61</v>
+        <v>3.8</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>23/08/2023 15:00</t>
+          <t>23/08/2023 16:54</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.98</v>
+        <v>3.9</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.89</v>
+        <v>3.24</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>23/08/2023 13:49</t>
+          <t>23/08/2023 16:54</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/concordia-elblag-olimpia-zambrow/K4g7h7Y5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/unia-skierniewice-gks-wikielec/rwu2EleP/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skierniewice</t>
+          <t>Swit Mazowiecki</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Wikielec</t>
+          <t>Jagiellonia II</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.87</v>
+        <v>1.58</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:54</t>
+          <t>23/08/2023 16:11</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.79</v>
+        <v>3.58</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.8</v>
+        <v>4.02</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:54</t>
+          <t>23/08/2023 16:11</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.9</v>
+        <v>3.42</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.24</v>
+        <v>4.46</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:54</t>
+          <t>23/08/2023 16:11</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/unia-skierniewice-gks-wikielec/rwu2EleP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/swit-mazowiecki-jagiellonia/SUdFjo3I/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Swit Mazowiecki</t>
+          <t>Concordia Elblag</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Jagiellonia II</t>
+          <t>Zambrow</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>22/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>1.74</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>22/08/2023 22:10</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>22/08/2023 05:12</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:11</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="P27" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>23/08/2023 15:00</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S27" t="inlineStr">
         <is>
           <t>22/08/2023 05:12</t>
         </is>
       </c>
-      <c r="P27" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:11</t>
-        </is>
-      </c>
-      <c r="R27" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>22/08/2023 05:12</t>
-        </is>
-      </c>
       <c r="T27" t="n">
-        <v>4.46</v>
+        <v>3.89</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:11</t>
+          <t>23/08/2023 13:49</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/swit-mazowiecki-jagiellonia/SUdFjo3I/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/concordia-elblag-olimpia-zambrow/K4g7h7Y5/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mlawa</t>
+          <t>Grodzisk M.</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>GKS Belchatow</t>
+          <t>Warta Sieradz</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:39</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.53</v>
+        <v>4.18</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.11</v>
+        <v>5.11</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.08</v>
+        <v>5</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>1.98</v>
+        <v>7.03</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 16:39</t>
+          <t>23/08/2023 16:53</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/mks-mlawa-gks-belchatow/Y7cBiRmC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/gks-pogon-grodzisk-mazowiecki-warta-sieradz/pnRT983t/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Grodzisk M.</t>
+          <t>Mlawa</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,63 +3249,63 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Warta Sieradz</t>
+          <t>GKS Belchatow</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:39</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.18</v>
+        <v>3.53</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.11</v>
+        <v>4.11</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>2.08</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>7.03</v>
+        <v>1.98</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 16:53</t>
+          <t>23/08/2023 16:39</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/gks-pogon-grodzisk-mazowiecki-warta-sieradz/pnRT983t/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/mks-mlawa-gks-belchatow/Y7cBiRmC/</t>
         </is>
       </c>
     </row>
@@ -6618,6 +6618,558 @@
       <c r="V67" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/bron-radom-swit-mazowiecki/l0wewVTf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>iii-liga-group-i</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45192.625</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Wikielec</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>T. Mazowiecki</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:49</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:49</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:49</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/gks-wikielec-tomaszow-mazowiecki/nXGPNkU7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>iii-liga-group-i</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45192.625</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Jagiellonia II</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Sulejowek</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:46</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:50</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:46</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/jagiellonia-victoria-sulejowek/SSgCogME/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>iii-liga-group-i</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Concordia Elblag</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Mlawa</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/concordia-elblag-mks-mlawa/Sjxaxkq1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>iii-liga-group-i</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Legionowo</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Warta Sieradz</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/legionowo-warta-sieradz/lxe8nZ68/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>iii-liga-group-i</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Zambrow</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Grodzisk M.</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/olimpia-zambrow-gks-pogon-grodzisk-mazowiecki/zgcKqXjR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>iii-liga-group-i</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45193.5</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Pelikan</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>3</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Pilica Bialobrzegi</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>22/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>24/09/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>22/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>24/09/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>22/09/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>24/09/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-i/pelikan-pilica-bialobrzegi/fwvivBEl/</t>
         </is>
       </c>
     </row>
